--- a/Pushpa/PushpaPatil_Assignments.xlsx
+++ b/Pushpa/PushpaPatil_Assignments.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
     <sheet name="Day2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="StringBuffer_StringBuilder" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t>1 Furniture making :</t>
   </si>
@@ -457,12 +457,114 @@
   <si>
     <t>3 – Different Number system – Binary, Octal, Decimal ,Hexadecimal</t>
   </si>
+  <si>
+    <t>StringBuffer</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <r>
+      <t>StringBuffer is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> i.e. thread safe. It means two threads can't call the methods of StringBuffer simultaneously.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>StringBuilder is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>non-synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> i.e. not thread safe. It means two threads can call the methods of StringBuilder simultaneously.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>StringBuffer is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>less efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> than StringBuilder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>StringBuilder is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>more efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> than StringBuffer.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +714,19 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -651,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -768,11 +883,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -890,6 +1061,21 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,6 +2602,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F92:I92"/>
     <mergeCell ref="F93:I93"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="O58:O63"/>
@@ -2432,7 +2619,6 @@
     <mergeCell ref="F91:I91"/>
     <mergeCell ref="B91:E91"/>
     <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2442,12 +2628,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>